--- a/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4571" uniqueCount="383">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -824,31 +824,25 @@
     <t>ruoloSegretario</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Impedimento - Sposo</t>
@@ -8344,7 +8338,7 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310">
@@ -8367,7 +8361,7 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311">
@@ -8390,7 +8384,7 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312">
@@ -8413,7 +8407,7 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="313">
@@ -8436,7 +8430,7 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="314">
@@ -8459,7 +8453,7 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="315">
@@ -8482,7 +8476,7 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="316">
@@ -8505,7 +8499,7 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="317">
@@ -8528,7 +8522,7 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318">
@@ -8551,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319">
@@ -8574,7 +8568,7 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="320">
@@ -8597,7 +8591,7 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="321">
@@ -8620,7 +8614,7 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="322">
@@ -8643,7 +8637,7 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323">
@@ -8666,7 +8660,7 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324">
@@ -8689,7 +8683,7 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="325">
@@ -8712,7 +8706,7 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326">
@@ -8735,7 +8729,7 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327">
@@ -8758,7 +8752,7 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="328">
@@ -8781,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="329">
@@ -8804,7 +8798,7 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="330">
@@ -8827,12 +8821,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>272</v>
+        <v>60</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>96</v>
@@ -8841,7 +8835,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>115</v>
@@ -8850,12 +8844,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>98</v>
@@ -8864,7 +8858,7 @@
         <v>33</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>117</v>
@@ -8873,12 +8867,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>118</v>
@@ -8887,7 +8881,7 @@
         <v>33</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>119</v>
@@ -8896,12 +8890,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>120</v>
@@ -8910,7 +8904,7 @@
         <v>33</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>121</v>
@@ -8919,12 +8913,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>122</v>
@@ -8933,7 +8927,7 @@
         <v>33</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>123</v>
@@ -8942,12 +8936,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>124</v>
@@ -8956,7 +8950,7 @@
         <v>33</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>125</v>
@@ -8965,12 +8959,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>126</v>
@@ -8979,7 +8973,7 @@
         <v>9</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>127</v>
@@ -8988,12 +8982,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>128</v>
@@ -9002,7 +8996,7 @@
         <v>9</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>129</v>
@@ -9011,12 +9005,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>130</v>
@@ -9025,7 +9019,7 @@
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>131</v>
@@ -9034,12 +9028,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>132</v>
@@ -9048,7 +9042,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>133</v>
@@ -9057,12 +9051,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>134</v>
@@ -9071,7 +9065,7 @@
         <v>33</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>135</v>
@@ -9080,12 +9074,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>136</v>
@@ -9094,7 +9088,7 @@
         <v>33</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>137</v>
@@ -9103,12 +9097,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>138</v>
@@ -9117,7 +9111,7 @@
         <v>33</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>139</v>
@@ -9126,12 +9120,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>140</v>
@@ -9140,7 +9134,7 @@
         <v>33</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>141</v>
@@ -9149,12 +9143,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>142</v>
@@ -9163,7 +9157,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>143</v>
@@ -9172,12 +9166,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>144</v>
@@ -9186,7 +9180,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>145</v>
@@ -9195,12 +9189,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>146</v>
@@ -9209,7 +9203,7 @@
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>147</v>
@@ -9218,12 +9212,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>148</v>
@@ -9232,7 +9226,7 @@
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>149</v>
@@ -9241,12 +9235,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>150</v>
@@ -9255,7 +9249,7 @@
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>151</v>
@@ -9264,12 +9258,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>152</v>
@@ -9278,7 +9272,7 @@
         <v>33</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>153</v>
@@ -9287,12 +9281,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>154</v>
@@ -9301,7 +9295,7 @@
         <v>33</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>155</v>
@@ -9310,12 +9304,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>156</v>
@@ -9324,7 +9318,7 @@
         <v>33</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>157</v>
@@ -9333,12 +9327,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>96</v>
@@ -9347,7 +9341,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>115</v>
@@ -9356,12 +9350,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>98</v>
@@ -9370,7 +9364,7 @@
         <v>33</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>117</v>
@@ -9379,12 +9373,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>118</v>
@@ -9393,7 +9387,7 @@
         <v>33</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>119</v>
@@ -9402,12 +9396,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>120</v>
@@ -9416,7 +9410,7 @@
         <v>33</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>121</v>
@@ -9425,12 +9419,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>122</v>
@@ -9439,7 +9433,7 @@
         <v>33</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>123</v>
@@ -9448,12 +9442,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>124</v>
@@ -9462,7 +9456,7 @@
         <v>33</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>125</v>
@@ -9471,12 +9465,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>126</v>
@@ -9485,7 +9479,7 @@
         <v>9</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>127</v>
@@ -9494,12 +9488,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>128</v>
@@ -9508,7 +9502,7 @@
         <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>129</v>
@@ -9517,12 +9511,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>130</v>
@@ -9531,7 +9525,7 @@
         <v>9</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>131</v>
@@ -9540,12 +9534,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>132</v>
@@ -9554,7 +9548,7 @@
         <v>9</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>133</v>
@@ -9563,12 +9557,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>134</v>
@@ -9577,7 +9571,7 @@
         <v>33</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>135</v>
@@ -9586,12 +9580,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>136</v>
@@ -9600,7 +9594,7 @@
         <v>33</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>137</v>
@@ -9609,12 +9603,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>138</v>
@@ -9623,7 +9617,7 @@
         <v>33</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>139</v>
@@ -9632,12 +9626,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>140</v>
@@ -9646,7 +9640,7 @@
         <v>33</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>141</v>
@@ -9655,12 +9649,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>142</v>
@@ -9669,7 +9663,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>143</v>
@@ -9678,12 +9672,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>144</v>
@@ -9692,7 +9686,7 @@
         <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>145</v>
@@ -9701,12 +9695,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>146</v>
@@ -9715,7 +9709,7 @@
         <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>147</v>
@@ -9724,12 +9718,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>148</v>
@@ -9738,7 +9732,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>149</v>
@@ -9747,12 +9741,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>150</v>
@@ -9761,7 +9755,7 @@
         <v>9</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>151</v>
@@ -9770,12 +9764,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>152</v>
@@ -9784,7 +9778,7 @@
         <v>33</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>153</v>
@@ -9793,12 +9787,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>154</v>
@@ -9807,7 +9801,7 @@
         <v>33</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>155</v>
@@ -9816,12 +9810,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>156</v>
@@ -9830,7 +9824,7 @@
         <v>33</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>157</v>
@@ -9839,12 +9833,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>211</v>
@@ -9853,7 +9847,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>213</v>
@@ -9862,12 +9856,12 @@
         <v>32</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>215</v>
@@ -9876,7 +9870,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>216</v>
@@ -9885,12 +9879,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>217</v>
@@ -9899,7 +9893,7 @@
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>218</v>
@@ -9908,12 +9902,12 @@
         <v>32</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>219</v>
@@ -9922,7 +9916,7 @@
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>220</v>
@@ -9931,12 +9925,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>221</v>
@@ -9945,7 +9939,7 @@
         <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>222</v>
@@ -9954,12 +9948,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>223</v>
@@ -9968,7 +9962,7 @@
         <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>224</v>
@@ -9977,12 +9971,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>225</v>
@@ -9991,7 +9985,7 @@
         <v>9</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>226</v>
@@ -10000,35 +9994,35 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E382" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="F382" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>96</v>
@@ -10037,7 +10031,7 @@
         <v>9</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>115</v>
@@ -10046,12 +10040,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>98</v>
@@ -10060,7 +10054,7 @@
         <v>33</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>117</v>
@@ -10069,12 +10063,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>118</v>
@@ -10083,7 +10077,7 @@
         <v>33</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>119</v>
@@ -10092,12 +10086,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>120</v>
@@ -10106,7 +10100,7 @@
         <v>33</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>121</v>
@@ -10115,12 +10109,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>122</v>
@@ -10129,7 +10123,7 @@
         <v>33</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>123</v>
@@ -10138,12 +10132,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>124</v>
@@ -10152,7 +10146,7 @@
         <v>33</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>125</v>
@@ -10161,12 +10155,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>126</v>
@@ -10175,7 +10169,7 @@
         <v>9</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>127</v>
@@ -10184,12 +10178,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>128</v>
@@ -10198,7 +10192,7 @@
         <v>9</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>129</v>
@@ -10207,12 +10201,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>130</v>
@@ -10221,7 +10215,7 @@
         <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>131</v>
@@ -10230,12 +10224,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>132</v>
@@ -10244,7 +10238,7 @@
         <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>133</v>
@@ -10253,12 +10247,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>134</v>
@@ -10267,7 +10261,7 @@
         <v>33</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>135</v>
@@ -10276,12 +10270,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>136</v>
@@ -10290,7 +10284,7 @@
         <v>33</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>137</v>
@@ -10299,12 +10293,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>138</v>
@@ -10313,7 +10307,7 @@
         <v>33</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>139</v>
@@ -10322,12 +10316,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>140</v>
@@ -10336,7 +10330,7 @@
         <v>33</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>141</v>
@@ -10345,12 +10339,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>142</v>
@@ -10359,7 +10353,7 @@
         <v>9</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>143</v>
@@ -10368,12 +10362,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>144</v>
@@ -10382,7 +10376,7 @@
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>145</v>
@@ -10391,12 +10385,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>146</v>
@@ -10405,7 +10399,7 @@
         <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>147</v>
@@ -10414,12 +10408,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>148</v>
@@ -10428,7 +10422,7 @@
         <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>149</v>
@@ -10437,12 +10431,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>150</v>
@@ -10451,7 +10445,7 @@
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>151</v>
@@ -10460,12 +10454,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>152</v>
@@ -10474,7 +10468,7 @@
         <v>33</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>153</v>
@@ -10483,12 +10477,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>154</v>
@@ -10497,7 +10491,7 @@
         <v>33</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>155</v>
@@ -10506,12 +10500,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>156</v>
@@ -10520,7 +10514,7 @@
         <v>33</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>157</v>
@@ -10529,12 +10523,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>211</v>
@@ -10543,7 +10537,7 @@
         <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>213</v>
@@ -10552,12 +10546,12 @@
         <v>32</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>215</v>
@@ -10566,7 +10560,7 @@
         <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>216</v>
@@ -10575,12 +10569,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>217</v>
@@ -10589,7 +10583,7 @@
         <v>9</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E407" s="2" t="s">
         <v>218</v>
@@ -10598,12 +10592,12 @@
         <v>32</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>219</v>
@@ -10612,7 +10606,7 @@
         <v>9</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>220</v>
@@ -10621,12 +10615,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>221</v>
@@ -10635,7 +10629,7 @@
         <v>9</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E409" s="2" t="s">
         <v>222</v>
@@ -10644,12 +10638,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>223</v>
@@ -10658,7 +10652,7 @@
         <v>9</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>224</v>
@@ -10667,12 +10661,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>225</v>
@@ -10681,7 +10675,7 @@
         <v>9</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>226</v>
@@ -10690,35 +10684,35 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B412" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E412" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>96</v>
@@ -10736,12 +10730,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>98</v>
@@ -10759,12 +10753,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>118</v>
@@ -10782,12 +10776,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>120</v>
@@ -10805,12 +10799,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>122</v>
@@ -10828,12 +10822,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>124</v>
@@ -10851,12 +10845,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>126</v>
@@ -10874,12 +10868,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>128</v>
@@ -10897,12 +10891,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>130</v>
@@ -10920,12 +10914,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>132</v>
@@ -10943,12 +10937,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>134</v>
@@ -10966,12 +10960,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>136</v>
@@ -10989,12 +10983,12 @@
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>138</v>
@@ -11012,12 +11006,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>140</v>
@@ -11035,12 +11029,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>142</v>
@@ -11058,12 +11052,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>144</v>
@@ -11081,12 +11075,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>146</v>
@@ -11104,12 +11098,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>148</v>
@@ -11127,12 +11121,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>150</v>
@@ -11150,12 +11144,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>152</v>
@@ -11173,12 +11167,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>154</v>
@@ -11196,12 +11190,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>156</v>
@@ -11219,12 +11213,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>96</v>
@@ -11242,12 +11236,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>98</v>
@@ -11265,12 +11259,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>118</v>
@@ -11288,12 +11282,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>120</v>
@@ -11311,12 +11305,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>122</v>
@@ -11334,12 +11328,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>124</v>
@@ -11357,12 +11351,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>126</v>
@@ -11380,12 +11374,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>128</v>
@@ -11403,12 +11397,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>130</v>
@@ -11426,12 +11420,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>132</v>
@@ -11449,12 +11443,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>134</v>
@@ -11472,12 +11466,12 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>136</v>
@@ -11495,12 +11489,12 @@
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>138</v>
@@ -11518,12 +11512,12 @@
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>140</v>
@@ -11541,12 +11535,12 @@
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>142</v>
@@ -11564,12 +11558,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>144</v>
@@ -11587,12 +11581,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>146</v>
@@ -11610,12 +11604,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>148</v>
@@ -11633,12 +11627,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>150</v>
@@ -11656,12 +11650,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>152</v>
@@ -11679,12 +11673,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>154</v>
@@ -11702,12 +11696,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>156</v>
@@ -11725,12 +11719,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>96</v>
@@ -11739,21 +11733,21 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>98</v>
@@ -11762,7 +11756,7 @@
         <v>33</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>117</v>
@@ -11771,12 +11765,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>118</v>
@@ -11785,7 +11779,7 @@
         <v>33</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>119</v>
@@ -11794,12 +11788,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>120</v>
@@ -11808,7 +11802,7 @@
         <v>33</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>121</v>
@@ -11817,12 +11811,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>122</v>
@@ -11831,7 +11825,7 @@
         <v>33</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>123</v>
@@ -11840,12 +11834,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>124</v>
@@ -11854,7 +11848,7 @@
         <v>33</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>125</v>
@@ -11863,12 +11857,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>126</v>
@@ -11877,7 +11871,7 @@
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>127</v>
@@ -11886,12 +11880,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>128</v>
@@ -11900,7 +11894,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>129</v>
@@ -11909,12 +11903,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>130</v>
@@ -11923,7 +11917,7 @@
         <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>131</v>
@@ -11932,12 +11926,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>132</v>
@@ -11946,7 +11940,7 @@
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>133</v>
@@ -11955,12 +11949,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>134</v>
@@ -11969,7 +11963,7 @@
         <v>33</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>135</v>
@@ -11978,12 +11972,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>136</v>
@@ -11992,7 +11986,7 @@
         <v>33</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>137</v>
@@ -12001,12 +11995,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>138</v>
@@ -12015,7 +12009,7 @@
         <v>33</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>139</v>
@@ -12024,12 +12018,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>140</v>
@@ -12038,7 +12032,7 @@
         <v>33</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>141</v>
@@ -12047,12 +12041,12 @@
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>142</v>
@@ -12061,7 +12055,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>143</v>
@@ -12070,12 +12064,12 @@
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>144</v>
@@ -12084,7 +12078,7 @@
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>145</v>
@@ -12093,12 +12087,12 @@
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>146</v>
@@ -12107,7 +12101,7 @@
         <v>9</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>147</v>
@@ -12116,12 +12110,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>148</v>
@@ -12130,7 +12124,7 @@
         <v>9</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>149</v>
@@ -12139,12 +12133,12 @@
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>150</v>
@@ -12153,7 +12147,7 @@
         <v>9</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>151</v>
@@ -12162,12 +12156,12 @@
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>152</v>
@@ -12176,7 +12170,7 @@
         <v>33</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>153</v>
@@ -12185,12 +12179,12 @@
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>154</v>
@@ -12199,7 +12193,7 @@
         <v>33</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>155</v>
@@ -12208,12 +12202,12 @@
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>156</v>
@@ -12222,7 +12216,7 @@
         <v>33</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>157</v>
@@ -12231,58 +12225,58 @@
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E479" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D479" s="2" t="s">
+      <c r="F479" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="E479" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F479" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G479" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D480" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="E480" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F480" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G480" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>96</v>
@@ -12291,21 +12285,21 @@
         <v>9</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>98</v>
@@ -12314,7 +12308,7 @@
         <v>33</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>117</v>
@@ -12323,12 +12317,12 @@
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>118</v>
@@ -12337,7 +12331,7 @@
         <v>33</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>119</v>
@@ -12346,12 +12340,12 @@
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>120</v>
@@ -12360,7 +12354,7 @@
         <v>33</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>121</v>
@@ -12369,12 +12363,12 @@
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>122</v>
@@ -12383,7 +12377,7 @@
         <v>33</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>123</v>
@@ -12392,12 +12386,12 @@
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>124</v>
@@ -12406,7 +12400,7 @@
         <v>33</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>125</v>
@@ -12415,12 +12409,12 @@
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>126</v>
@@ -12429,7 +12423,7 @@
         <v>9</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>127</v>
@@ -12438,12 +12432,12 @@
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>128</v>
@@ -12452,7 +12446,7 @@
         <v>9</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>129</v>
@@ -12461,12 +12455,12 @@
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>130</v>
@@ -12475,7 +12469,7 @@
         <v>9</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>131</v>
@@ -12484,12 +12478,12 @@
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>132</v>
@@ -12498,7 +12492,7 @@
         <v>9</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>133</v>
@@ -12507,12 +12501,12 @@
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>134</v>
@@ -12521,7 +12515,7 @@
         <v>33</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>135</v>
@@ -12530,12 +12524,12 @@
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>136</v>
@@ -12544,7 +12538,7 @@
         <v>33</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>137</v>
@@ -12553,12 +12547,12 @@
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>138</v>
@@ -12567,7 +12561,7 @@
         <v>33</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>139</v>
@@ -12576,12 +12570,12 @@
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>140</v>
@@ -12590,7 +12584,7 @@
         <v>33</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>141</v>
@@ -12599,12 +12593,12 @@
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>142</v>
@@ -12613,7 +12607,7 @@
         <v>9</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>143</v>
@@ -12622,12 +12616,12 @@
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>144</v>
@@ -12636,7 +12630,7 @@
         <v>9</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>145</v>
@@ -12645,12 +12639,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>146</v>
@@ -12659,7 +12653,7 @@
         <v>9</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>147</v>
@@ -12668,12 +12662,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>148</v>
@@ -12682,7 +12676,7 @@
         <v>9</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>149</v>
@@ -12691,12 +12685,12 @@
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>150</v>
@@ -12705,7 +12699,7 @@
         <v>9</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>151</v>
@@ -12714,12 +12708,12 @@
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>152</v>
@@ -12728,7 +12722,7 @@
         <v>33</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>153</v>
@@ -12737,12 +12731,12 @@
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>154</v>
@@ -12751,7 +12745,7 @@
         <v>33</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>155</v>
@@ -12760,12 +12754,12 @@
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>156</v>
@@ -12774,7 +12768,7 @@
         <v>33</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>157</v>
@@ -12783,12 +12777,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>211</v>
@@ -12797,7 +12791,7 @@
         <v>9</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>213</v>
@@ -12806,12 +12800,12 @@
         <v>40</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>215</v>
@@ -12820,7 +12814,7 @@
         <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>216</v>
@@ -12829,12 +12823,12 @@
         <v>40</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>217</v>
@@ -12843,7 +12837,7 @@
         <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>218</v>
@@ -12852,12 +12846,12 @@
         <v>40</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>219</v>
@@ -12866,7 +12860,7 @@
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>220</v>
@@ -12875,12 +12869,12 @@
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>221</v>
@@ -12889,7 +12883,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>222</v>
@@ -12898,12 +12892,12 @@
         <v>40</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>223</v>
@@ -12912,7 +12906,7 @@
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>224</v>
@@ -12921,12 +12915,12 @@
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>225</v>
@@ -12935,7 +12929,7 @@
         <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>226</v>
@@ -12944,12 +12938,12 @@
         <v>40</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>187</v>
@@ -12958,7 +12952,7 @@
         <v>9</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>189</v>
@@ -12972,7 +12966,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>190</v>
@@ -12981,7 +12975,7 @@
         <v>33</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>191</v>
@@ -12995,7 +12989,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>192</v>
@@ -13004,7 +12998,7 @@
         <v>33</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>193</v>
@@ -13018,7 +13012,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>194</v>
@@ -13027,7 +13021,7 @@
         <v>33</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>195</v>
@@ -13041,7 +13035,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>196</v>
@@ -13050,7 +13044,7 @@
         <v>33</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>197</v>
@@ -13064,7 +13058,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>198</v>
@@ -13073,7 +13067,7 @@
         <v>33</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>199</v>
@@ -13087,7 +13081,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>200</v>
@@ -13096,7 +13090,7 @@
         <v>33</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>59</v>
@@ -13110,7 +13104,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>201</v>
@@ -13119,7 +13113,7 @@
         <v>33</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>202</v>
@@ -13133,7 +13127,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>203</v>
@@ -13142,7 +13136,7 @@
         <v>33</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>62</v>
@@ -13156,7 +13150,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>204</v>
@@ -13165,7 +13159,7 @@
         <v>33</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>205</v>
@@ -13179,7 +13173,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>206</v>
@@ -13188,7 +13182,7 @@
         <v>9</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>207</v>
@@ -13202,7 +13196,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>208</v>
@@ -13211,7 +13205,7 @@
         <v>9</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>209</v>
@@ -13225,7 +13219,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>68</v>
@@ -13234,7 +13228,7 @@
         <v>33</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>69</v>
@@ -13248,7 +13242,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>96</v>
@@ -13257,7 +13251,7 @@
         <v>9</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>115</v>
@@ -13266,12 +13260,12 @@
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>98</v>
@@ -13280,7 +13274,7 @@
         <v>33</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>117</v>
@@ -13289,12 +13283,12 @@
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>118</v>
@@ -13303,7 +13297,7 @@
         <v>33</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>119</v>
@@ -13312,12 +13306,12 @@
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>120</v>
@@ -13326,7 +13320,7 @@
         <v>33</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>121</v>
@@ -13335,12 +13329,12 @@
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>122</v>
@@ -13349,7 +13343,7 @@
         <v>33</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>123</v>
@@ -13358,12 +13352,12 @@
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>124</v>
@@ -13372,7 +13366,7 @@
         <v>33</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>125</v>
@@ -13381,12 +13375,12 @@
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>126</v>
@@ -13395,7 +13389,7 @@
         <v>9</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>127</v>
@@ -13404,12 +13398,12 @@
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>128</v>
@@ -13418,7 +13412,7 @@
         <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>129</v>
@@ -13427,12 +13421,12 @@
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>130</v>
@@ -13441,7 +13435,7 @@
         <v>9</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>131</v>
@@ -13450,12 +13444,12 @@
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>132</v>
@@ -13464,7 +13458,7 @@
         <v>9</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>133</v>
@@ -13473,12 +13467,12 @@
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>134</v>
@@ -13487,7 +13481,7 @@
         <v>33</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>135</v>
@@ -13496,12 +13490,12 @@
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>136</v>
@@ -13510,7 +13504,7 @@
         <v>33</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>137</v>
@@ -13519,12 +13513,12 @@
         <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>138</v>
@@ -13533,7 +13527,7 @@
         <v>33</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E535" s="2" t="s">
         <v>139</v>
@@ -13542,12 +13536,12 @@
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>140</v>
@@ -13556,7 +13550,7 @@
         <v>33</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>141</v>
@@ -13565,12 +13559,12 @@
         <v>10</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>142</v>
@@ -13579,7 +13573,7 @@
         <v>9</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>143</v>
@@ -13588,12 +13582,12 @@
         <v>10</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>144</v>
@@ -13602,7 +13596,7 @@
         <v>9</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>145</v>
@@ -13611,12 +13605,12 @@
         <v>10</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>146</v>
@@ -13625,7 +13619,7 @@
         <v>9</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>147</v>
@@ -13634,12 +13628,12 @@
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>148</v>
@@ -13648,7 +13642,7 @@
         <v>9</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>149</v>
@@ -13657,12 +13651,12 @@
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>150</v>
@@ -13671,7 +13665,7 @@
         <v>9</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>151</v>
@@ -13680,12 +13674,12 @@
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>152</v>
@@ -13694,7 +13688,7 @@
         <v>33</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>153</v>
@@ -13703,12 +13697,12 @@
         <v>10</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>154</v>
@@ -13717,7 +13711,7 @@
         <v>33</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>155</v>
@@ -13726,12 +13720,12 @@
         <v>10</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>156</v>
@@ -13740,7 +13734,7 @@
         <v>33</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>157</v>
@@ -13749,12 +13743,12 @@
         <v>10</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>96</v>
@@ -13763,7 +13757,7 @@
         <v>9</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>115</v>
@@ -13772,12 +13766,12 @@
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>98</v>
@@ -13786,7 +13780,7 @@
         <v>33</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>117</v>
@@ -13795,12 +13789,12 @@
         <v>10</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>118</v>
@@ -13809,7 +13803,7 @@
         <v>33</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>119</v>
@@ -13818,12 +13812,12 @@
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>120</v>
@@ -13832,7 +13826,7 @@
         <v>33</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>121</v>
@@ -13841,12 +13835,12 @@
         <v>10</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>122</v>
@@ -13855,7 +13849,7 @@
         <v>33</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>123</v>
@@ -13864,12 +13858,12 @@
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>124</v>
@@ -13878,7 +13872,7 @@
         <v>33</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>125</v>
@@ -13887,12 +13881,12 @@
         <v>10</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>126</v>
@@ -13901,7 +13895,7 @@
         <v>9</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>127</v>
@@ -13910,12 +13904,12 @@
         <v>10</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>128</v>
@@ -13924,7 +13918,7 @@
         <v>9</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>129</v>
@@ -13933,12 +13927,12 @@
         <v>10</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>130</v>
@@ -13947,7 +13941,7 @@
         <v>9</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>131</v>
@@ -13956,12 +13950,12 @@
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>132</v>
@@ -13970,7 +13964,7 @@
         <v>9</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>133</v>
@@ -13979,12 +13973,12 @@
         <v>10</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>134</v>
@@ -13993,7 +13987,7 @@
         <v>33</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>135</v>
@@ -14002,12 +13996,12 @@
         <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>136</v>
@@ -14016,7 +14010,7 @@
         <v>33</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>137</v>
@@ -14025,12 +14019,12 @@
         <v>10</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>138</v>
@@ -14039,7 +14033,7 @@
         <v>33</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>139</v>
@@ -14048,12 +14042,12 @@
         <v>10</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>140</v>
@@ -14062,7 +14056,7 @@
         <v>33</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>141</v>
@@ -14071,12 +14065,12 @@
         <v>10</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>142</v>
@@ -14085,7 +14079,7 @@
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>143</v>
@@ -14094,12 +14088,12 @@
         <v>10</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>144</v>
@@ -14108,7 +14102,7 @@
         <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>145</v>
@@ -14117,12 +14111,12 @@
         <v>10</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>146</v>
@@ -14131,7 +14125,7 @@
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>147</v>
@@ -14140,12 +14134,12 @@
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>148</v>
@@ -14154,7 +14148,7 @@
         <v>9</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>149</v>
@@ -14163,12 +14157,12 @@
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>150</v>
@@ -14177,7 +14171,7 @@
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>151</v>
@@ -14186,12 +14180,12 @@
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B564" s="2" t="s">
         <v>152</v>
@@ -14200,7 +14194,7 @@
         <v>33</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>153</v>
@@ -14209,12 +14203,12 @@
         <v>10</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>154</v>
@@ -14223,7 +14217,7 @@
         <v>33</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>155</v>
@@ -14232,12 +14226,12 @@
         <v>10</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>156</v>
@@ -14246,7 +14240,7 @@
         <v>33</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>157</v>
@@ -14255,58 +14249,58 @@
         <v>10</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E567" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="F567" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G567" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E567" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F567" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G567" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>211</v>
@@ -14315,7 +14309,7 @@
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>213</v>
@@ -14324,12 +14318,12 @@
         <v>40</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>215</v>
@@ -14338,7 +14332,7 @@
         <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>216</v>
@@ -14347,12 +14341,12 @@
         <v>40</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>217</v>
@@ -14361,7 +14355,7 @@
         <v>9</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>218</v>
@@ -14370,12 +14364,12 @@
         <v>40</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>219</v>
@@ -14384,7 +14378,7 @@
         <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>220</v>
@@ -14393,12 +14387,12 @@
         <v>10</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>221</v>
@@ -14407,7 +14401,7 @@
         <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>222</v>
@@ -14416,12 +14410,12 @@
         <v>40</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>223</v>
@@ -14430,7 +14424,7 @@
         <v>9</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>224</v>
@@ -14439,12 +14433,12 @@
         <v>10</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>225</v>
@@ -14453,7 +14447,7 @@
         <v>9</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>226</v>
@@ -14462,12 +14456,12 @@
         <v>40</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>187</v>
@@ -14476,7 +14470,7 @@
         <v>9</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>189</v>
@@ -14485,12 +14479,12 @@
         <v>10</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>190</v>
@@ -14499,7 +14493,7 @@
         <v>33</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>191</v>
@@ -14508,12 +14502,12 @@
         <v>10</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>192</v>
@@ -14522,7 +14516,7 @@
         <v>33</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>193</v>
@@ -14531,12 +14525,12 @@
         <v>10</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>194</v>
@@ -14545,7 +14539,7 @@
         <v>33</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>195</v>
@@ -14554,12 +14548,12 @@
         <v>10</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>196</v>
@@ -14568,7 +14562,7 @@
         <v>33</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>197</v>
@@ -14577,12 +14571,12 @@
         <v>10</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>198</v>
@@ -14591,7 +14585,7 @@
         <v>33</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>199</v>
@@ -14600,12 +14594,12 @@
         <v>10</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>200</v>
@@ -14614,7 +14608,7 @@
         <v>33</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>59</v>
@@ -14623,12 +14617,12 @@
         <v>10</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>201</v>
@@ -14637,7 +14631,7 @@
         <v>33</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>202</v>
@@ -14646,12 +14640,12 @@
         <v>10</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>203</v>
@@ -14660,7 +14654,7 @@
         <v>33</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>62</v>
@@ -14669,12 +14663,12 @@
         <v>10</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>204</v>
@@ -14683,7 +14677,7 @@
         <v>33</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>205</v>
@@ -14692,12 +14686,12 @@
         <v>10</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>206</v>
@@ -14706,7 +14700,7 @@
         <v>9</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>207</v>
@@ -14715,12 +14709,12 @@
         <v>10</v>
       </c>
       <c r="G586" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>208</v>
@@ -14729,7 +14723,7 @@
         <v>9</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>209</v>
@@ -14738,12 +14732,12 @@
         <v>10</v>
       </c>
       <c r="G587" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>96</v>
@@ -14752,7 +14746,7 @@
         <v>9</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>115</v>
@@ -14761,12 +14755,12 @@
         <v>10</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>98</v>
@@ -14775,7 +14769,7 @@
         <v>9</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>117</v>
@@ -14784,12 +14778,12 @@
         <v>10</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>118</v>
@@ -14798,7 +14792,7 @@
         <v>9</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>119</v>
@@ -14807,12 +14801,12 @@
         <v>10</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>120</v>
@@ -14821,7 +14815,7 @@
         <v>9</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>121</v>
@@ -14830,12 +14824,12 @@
         <v>10</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>122</v>
@@ -14844,7 +14838,7 @@
         <v>9</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>123</v>
@@ -14853,12 +14847,12 @@
         <v>10</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>124</v>
@@ -14867,7 +14861,7 @@
         <v>9</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>125</v>
@@ -14876,12 +14870,12 @@
         <v>10</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>126</v>
@@ -14890,7 +14884,7 @@
         <v>9</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>127</v>
@@ -14899,12 +14893,12 @@
         <v>10</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>128</v>
@@ -14913,7 +14907,7 @@
         <v>9</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>129</v>
@@ -14922,12 +14916,12 @@
         <v>10</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>130</v>
@@ -14936,7 +14930,7 @@
         <v>9</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>131</v>
@@ -14945,12 +14939,12 @@
         <v>10</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>132</v>
@@ -14959,7 +14953,7 @@
         <v>9</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>133</v>
@@ -14968,12 +14962,12 @@
         <v>10</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>134</v>
@@ -14982,7 +14976,7 @@
         <v>9</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>135</v>
@@ -14991,12 +14985,12 @@
         <v>10</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B599" s="2" t="s">
         <v>136</v>
@@ -15005,7 +14999,7 @@
         <v>9</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>137</v>
@@ -15014,12 +15008,12 @@
         <v>10</v>
       </c>
       <c r="G599" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>138</v>
@@ -15028,7 +15022,7 @@
         <v>9</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>139</v>
@@ -15037,12 +15031,12 @@
         <v>10</v>
       </c>
       <c r="G600" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>140</v>
@@ -15051,7 +15045,7 @@
         <v>9</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>141</v>
@@ -15060,12 +15054,12 @@
         <v>10</v>
       </c>
       <c r="G601" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B602" s="2" t="s">
         <v>142</v>
@@ -15074,7 +15068,7 @@
         <v>9</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>143</v>
@@ -15083,12 +15077,12 @@
         <v>10</v>
       </c>
       <c r="G602" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B603" s="2" t="s">
         <v>144</v>
@@ -15097,7 +15091,7 @@
         <v>9</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>145</v>
@@ -15106,12 +15100,12 @@
         <v>10</v>
       </c>
       <c r="G603" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B604" s="2" t="s">
         <v>146</v>
@@ -15120,7 +15114,7 @@
         <v>9</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>147</v>
@@ -15129,12 +15123,12 @@
         <v>10</v>
       </c>
       <c r="G604" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B605" s="2" t="s">
         <v>148</v>
@@ -15143,7 +15137,7 @@
         <v>9</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>149</v>
@@ -15152,12 +15146,12 @@
         <v>10</v>
       </c>
       <c r="G605" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>150</v>
@@ -15166,7 +15160,7 @@
         <v>9</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>151</v>
@@ -15175,12 +15169,12 @@
         <v>10</v>
       </c>
       <c r="G606" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B607" s="2" t="s">
         <v>152</v>
@@ -15189,7 +15183,7 @@
         <v>9</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>153</v>
@@ -15198,12 +15192,12 @@
         <v>10</v>
       </c>
       <c r="G607" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B608" s="2" t="s">
         <v>154</v>
@@ -15212,7 +15206,7 @@
         <v>9</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>155</v>
@@ -15221,12 +15215,12 @@
         <v>10</v>
       </c>
       <c r="G608" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>156</v>
@@ -15235,7 +15229,7 @@
         <v>9</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>157</v>
@@ -15244,12 +15238,12 @@
         <v>10</v>
       </c>
       <c r="G609" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B610" s="2" t="s">
         <v>96</v>
@@ -15258,21 +15252,21 @@
         <v>9</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G610" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>98</v>
@@ -15281,7 +15275,7 @@
         <v>33</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>117</v>
@@ -15290,12 +15284,12 @@
         <v>10</v>
       </c>
       <c r="G611" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B612" s="2" t="s">
         <v>118</v>
@@ -15304,7 +15298,7 @@
         <v>33</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>119</v>
@@ -15313,12 +15307,12 @@
         <v>10</v>
       </c>
       <c r="G612" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>120</v>
@@ -15327,7 +15321,7 @@
         <v>33</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>121</v>
@@ -15336,12 +15330,12 @@
         <v>10</v>
       </c>
       <c r="G613" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B614" s="2" t="s">
         <v>122</v>
@@ -15350,7 +15344,7 @@
         <v>33</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>123</v>
@@ -15359,12 +15353,12 @@
         <v>10</v>
       </c>
       <c r="G614" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B615" s="2" t="s">
         <v>124</v>
@@ -15373,7 +15367,7 @@
         <v>33</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>125</v>
@@ -15382,12 +15376,12 @@
         <v>10</v>
       </c>
       <c r="G615" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B616" s="2" t="s">
         <v>126</v>
@@ -15396,7 +15390,7 @@
         <v>9</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>127</v>
@@ -15405,12 +15399,12 @@
         <v>10</v>
       </c>
       <c r="G616" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B617" s="2" t="s">
         <v>128</v>
@@ -15419,7 +15413,7 @@
         <v>9</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>129</v>
@@ -15428,12 +15422,12 @@
         <v>10</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B618" s="2" t="s">
         <v>130</v>
@@ -15442,7 +15436,7 @@
         <v>9</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>131</v>
@@ -15451,12 +15445,12 @@
         <v>10</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B619" s="2" t="s">
         <v>132</v>
@@ -15465,21 +15459,21 @@
         <v>9</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G619" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B620" s="2" t="s">
         <v>134</v>
@@ -15488,7 +15482,7 @@
         <v>33</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>135</v>
@@ -15497,12 +15491,12 @@
         <v>10</v>
       </c>
       <c r="G620" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B621" s="2" t="s">
         <v>136</v>
@@ -15511,7 +15505,7 @@
         <v>33</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>137</v>
@@ -15520,12 +15514,12 @@
         <v>10</v>
       </c>
       <c r="G621" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B622" s="2" t="s">
         <v>138</v>
@@ -15534,7 +15528,7 @@
         <v>33</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>139</v>
@@ -15543,12 +15537,12 @@
         <v>10</v>
       </c>
       <c r="G622" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B623" s="2" t="s">
         <v>140</v>
@@ -15557,7 +15551,7 @@
         <v>33</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>141</v>
@@ -15566,12 +15560,12 @@
         <v>10</v>
       </c>
       <c r="G623" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B624" s="2" t="s">
         <v>142</v>
@@ -15580,7 +15574,7 @@
         <v>9</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>143</v>
@@ -15589,12 +15583,12 @@
         <v>10</v>
       </c>
       <c r="G624" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B625" s="2" t="s">
         <v>144</v>
@@ -15603,7 +15597,7 @@
         <v>9</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>145</v>
@@ -15612,12 +15606,12 @@
         <v>10</v>
       </c>
       <c r="G625" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B626" s="2" t="s">
         <v>146</v>
@@ -15626,7 +15620,7 @@
         <v>9</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>147</v>
@@ -15635,12 +15629,12 @@
         <v>10</v>
       </c>
       <c r="G626" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B627" s="2" t="s">
         <v>148</v>
@@ -15649,21 +15643,21 @@
         <v>9</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F627" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G627" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B628" s="2" t="s">
         <v>150</v>
@@ -15672,7 +15666,7 @@
         <v>9</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>151</v>
@@ -15681,12 +15675,12 @@
         <v>10</v>
       </c>
       <c r="G628" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>152</v>
@@ -15695,7 +15689,7 @@
         <v>33</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>153</v>
@@ -15704,12 +15698,12 @@
         <v>10</v>
       </c>
       <c r="G629" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B630" s="2" t="s">
         <v>154</v>
@@ -15718,7 +15712,7 @@
         <v>33</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>155</v>
@@ -15727,12 +15721,12 @@
         <v>10</v>
       </c>
       <c r="G630" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B631" s="2" t="s">
         <v>156</v>
@@ -15741,7 +15735,7 @@
         <v>33</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E631" s="2" t="s">
         <v>157</v>
@@ -15750,15 +15744,15 @@
         <v>10</v>
       </c>
       <c r="G631" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>33</v>
@@ -15767,7 +15761,7 @@
         <v>87</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F632" s="2" t="s">
         <v>10</v>
@@ -15778,10 +15772,10 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>9</v>
@@ -15790,10 +15784,10 @@
         <v>87</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G633" s="2" t="s">
         <v>60</v>
@@ -15801,10 +15795,10 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>33</v>
@@ -15813,7 +15807,7 @@
         <v>87</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F634" s="2" t="s">
         <v>10</v>
@@ -15824,10 +15818,10 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>9</v>
@@ -15836,7 +15830,7 @@
         <v>87</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F635" s="2" t="s">
         <v>10</v>
@@ -15847,10 +15841,10 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>33</v>
@@ -15859,7 +15853,7 @@
         <v>58</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F636" s="2" t="s">
         <v>10</v>
@@ -15870,10 +15864,10 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>33</v>
@@ -15882,7 +15876,7 @@
         <v>87</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F637" s="2" t="s">
         <v>10</v>
@@ -15893,10 +15887,10 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>33</v>
@@ -15905,7 +15899,7 @@
         <v>87</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F638" s="2" t="s">
         <v>10</v>
@@ -15916,10 +15910,10 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>33</v>
@@ -15928,7 +15922,7 @@
         <v>87</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F639" s="2" t="s">
         <v>10</v>
@@ -15939,10 +15933,10 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>33</v>
@@ -15951,7 +15945,7 @@
         <v>87</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F640" s="2" t="s">
         <v>10</v>
@@ -15962,10 +15956,10 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>33</v>
@@ -15974,7 +15968,7 @@
         <v>87</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F641" s="2" t="s">
         <v>10</v>
@@ -15985,10 +15979,10 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>33</v>
@@ -15997,7 +15991,7 @@
         <v>87</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F642" s="2" t="s">
         <v>10</v>
@@ -16008,10 +16002,10 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>33</v>
@@ -16020,7 +16014,7 @@
         <v>87</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>10</v>
@@ -16031,10 +16025,10 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>33</v>
@@ -16043,7 +16037,7 @@
         <v>87</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>10</v>
@@ -16054,10 +16048,10 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>33</v>
@@ -16066,7 +16060,7 @@
         <v>87</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>10</v>
@@ -16077,19 +16071,19 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F646" s="2" t="s">
         <v>10</v>
@@ -16100,19 +16094,19 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B647" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E647" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="C647" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D647" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E647" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>10</v>
@@ -16123,19 +16117,19 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F648" s="2" t="s">
         <v>10</v>
@@ -16146,10 +16140,10 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>33</v>
@@ -16158,7 +16152,7 @@
         <v>87</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>10</v>
@@ -16169,10 +16163,10 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>33</v>
@@ -16181,7 +16175,7 @@
         <v>252</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F650" s="2" t="s">
         <v>10</v>
@@ -16192,10 +16186,10 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>33</v>
@@ -16204,7 +16198,7 @@
         <v>252</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F651" s="2" t="s">
         <v>10</v>
@@ -16215,48 +16209,48 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D652" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B652" s="2" t="s">
+      <c r="E652" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C652" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D652" s="2" t="s">
+      <c r="F652" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G652" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E652" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F652" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G652" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D653" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B653" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C653" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D653" s="2" t="s">
+      <c r="E653" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G653" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E653" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F653" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G653" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
@@ -2511,7 +2511,7 @@
         <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>97</v>
@@ -2520,7 +2520,7 @@
         <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>60</v>
@@ -2557,7 +2557,7 @@
         <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>97</v>
@@ -2580,7 +2580,7 @@
         <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>97</v>
@@ -2603,7 +2603,7 @@
         <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>97</v>
@@ -2626,7 +2626,7 @@
         <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>97</v>
@@ -2741,7 +2741,7 @@
         <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>97</v>
@@ -2764,7 +2764,7 @@
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>97</v>
@@ -2787,7 +2787,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>97</v>
@@ -2810,7 +2810,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>97</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
@@ -4495,7 +4495,7 @@
         <v>119</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>162</v>
@@ -4518,7 +4518,7 @@
         <v>121</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>162</v>
@@ -4527,7 +4527,7 @@
         <v>122</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>163</v>
@@ -5024,7 +5024,7 @@
         <v>119</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>165</v>
@@ -5047,7 +5047,7 @@
         <v>121</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>165</v>
@@ -5056,7 +5056,7 @@
         <v>122</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>166</v>
@@ -5553,7 +5553,7 @@
         <v>119</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>168</v>
@@ -5576,7 +5576,7 @@
         <v>121</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>168</v>
@@ -6082,7 +6082,7 @@
         <v>119</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>171</v>
@@ -6105,7 +6105,7 @@
         <v>121</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>171</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4858" uniqueCount="395">
   <si>
     <t>Sezione</t>
   </si>
@@ -1025,7 +1025,10 @@
     <t>66,68,70,71,72,64</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -16636,7 +16639,7 @@
         <v>334</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>141</v>
+        <v>338</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>33</v>
@@ -16656,10 +16659,10 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>33</v>
@@ -16668,7 +16671,7 @@
         <v>87</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>10</v>
@@ -16679,10 +16682,10 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>9</v>
@@ -16691,10 +16694,10 @@
         <v>87</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F671" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G671" s="2" t="s">
         <v>60</v>
@@ -16702,10 +16705,10 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>33</v>
@@ -16714,7 +16717,7 @@
         <v>87</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F672" s="2" t="s">
         <v>10</v>
@@ -16725,10 +16728,10 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>9</v>
@@ -16737,7 +16740,7 @@
         <v>87</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F673" s="2" t="s">
         <v>10</v>
@@ -16748,10 +16751,10 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>33</v>
@@ -16760,7 +16763,7 @@
         <v>58</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F674" s="2" t="s">
         <v>10</v>
@@ -16771,10 +16774,10 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>33</v>
@@ -16783,7 +16786,7 @@
         <v>87</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F675" s="2" t="s">
         <v>10</v>
@@ -16794,10 +16797,10 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>33</v>
@@ -16806,7 +16809,7 @@
         <v>87</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F676" s="2" t="s">
         <v>10</v>
@@ -16817,10 +16820,10 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>33</v>
@@ -16829,7 +16832,7 @@
         <v>87</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F677" s="2" t="s">
         <v>10</v>
@@ -16840,10 +16843,10 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>33</v>
@@ -16852,7 +16855,7 @@
         <v>87</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F678" s="2" t="s">
         <v>10</v>
@@ -16863,10 +16866,10 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>33</v>
@@ -16875,7 +16878,7 @@
         <v>87</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F679" s="2" t="s">
         <v>10</v>
@@ -16886,10 +16889,10 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>33</v>
@@ -16898,7 +16901,7 @@
         <v>87</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F680" s="2" t="s">
         <v>10</v>
@@ -16909,10 +16912,10 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>33</v>
@@ -16921,7 +16924,7 @@
         <v>87</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F681" s="2" t="s">
         <v>10</v>
@@ -16932,10 +16935,10 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>33</v>
@@ -16944,7 +16947,7 @@
         <v>87</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F682" s="2" t="s">
         <v>10</v>
@@ -16955,10 +16958,10 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>33</v>
@@ -16967,7 +16970,7 @@
         <v>87</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F683" s="2" t="s">
         <v>10</v>
@@ -16978,10 +16981,10 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>33</v>
@@ -16990,7 +16993,7 @@
         <v>303</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F684" s="2" t="s">
         <v>10</v>
@@ -17001,19 +17004,19 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F685" s="2" t="s">
         <v>10</v>
@@ -17024,10 +17027,10 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>9</v>
@@ -17036,7 +17039,7 @@
         <v>303</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F686" s="2" t="s">
         <v>10</v>
@@ -17047,10 +17050,10 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>33</v>
@@ -17059,7 +17062,7 @@
         <v>87</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F687" s="2" t="s">
         <v>10</v>
@@ -17070,10 +17073,10 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>33</v>
@@ -17082,7 +17085,7 @@
         <v>254</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F688" s="2" t="s">
         <v>10</v>
@@ -17093,10 +17096,10 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>33</v>
@@ -17105,7 +17108,7 @@
         <v>254</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F689" s="2" t="s">
         <v>10</v>
@@ -17116,10 +17119,10 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>9</v>
@@ -17128,7 +17131,7 @@
         <v>87</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F690" s="2" t="s">
         <v>10</v>
@@ -17139,10 +17142,10 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>9</v>
@@ -17151,7 +17154,7 @@
         <v>87</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F691" s="2" t="s">
         <v>10</v>
@@ -17162,71 +17165,71 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F692" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G692" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B693" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E693" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F693" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G693" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="C693" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D693" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E693" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F693" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G693" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F694" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G694" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
@@ -18566,7 +18566,7 @@
         <v>120</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D749" s="2" t="s">
         <v>364</v>
@@ -18589,7 +18589,7 @@
         <v>122</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D750" s="2" t="s">
         <v>364</v>
@@ -18598,7 +18598,7 @@
         <v>123</v>
       </c>
       <c r="F750" s="2" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="G750" s="2" t="s">
         <v>366</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
@@ -16212,7 +16212,7 @@
         <v>240</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G646" s="2" t="s">
         <v>59</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_013.xlsx
@@ -6242,7 +6242,7 @@
         <v>97</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>195</v>
@@ -6357,7 +6357,7 @@
         <v>107</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>195</v>
@@ -6472,7 +6472,7 @@
         <v>117</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G222" s="2" t="s">
         <v>195</v>
@@ -6518,7 +6518,7 @@
         <v>121</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>195</v>
@@ -6541,7 +6541,7 @@
         <v>123</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>195</v>
@@ -6587,7 +6587,7 @@
         <v>127</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>195</v>
@@ -6610,7 +6610,7 @@
         <v>129</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>195</v>
@@ -6633,7 +6633,7 @@
         <v>131</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>195</v>
@@ -6679,7 +6679,7 @@
         <v>135</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>195</v>
@@ -6725,7 +6725,7 @@
         <v>139</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>195</v>
@@ -6771,7 +6771,7 @@
         <v>143</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>195</v>
@@ -6794,7 +6794,7 @@
         <v>145</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>195</v>
@@ -6886,7 +6886,7 @@
         <v>97</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>198</v>
@@ -7001,7 +7001,7 @@
         <v>107</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>198</v>
@@ -7116,7 +7116,7 @@
         <v>117</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>198</v>
@@ -7162,7 +7162,7 @@
         <v>121</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>198</v>
@@ -7185,7 +7185,7 @@
         <v>123</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>198</v>
@@ -7231,7 +7231,7 @@
         <v>127</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>198</v>
@@ -7254,7 +7254,7 @@
         <v>129</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>198</v>
@@ -7277,7 +7277,7 @@
         <v>131</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>198</v>
@@ -7323,7 +7323,7 @@
         <v>135</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>198</v>
@@ -7369,7 +7369,7 @@
         <v>139</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>198</v>
@@ -7415,7 +7415,7 @@
         <v>143</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>198</v>
@@ -7438,7 +7438,7 @@
         <v>145</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>198</v>
